--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68295634-3341-7D4B-8330-090D74AE6686}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="460" windowWidth="28620" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38280" yWindow="456" windowWidth="28620" windowHeight="12924"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="fasta-method-2" sheetId="2" r:id="rId3"/>
     <sheet name="fasta-method-3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,23 +284,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,23 +319,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,21 +494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -551,7 +516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -559,7 +524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -567,7 +532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -575,7 +540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -583,17 +548,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -601,7 +566,7 @@
         <v>28921</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -609,67 +574,67 @@
         <v>2861668348</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -680,24 +645,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -733,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -741,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -749,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -757,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -765,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -773,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -781,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -789,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -797,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -805,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -813,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -821,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -829,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -837,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -845,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -853,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -861,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -869,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -877,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -885,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -893,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -901,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -909,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -917,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -925,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -933,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -941,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -949,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -957,7 +922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -965,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -973,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -981,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -989,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -997,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1005,7 +970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1013,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1021,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1029,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1037,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1045,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1053,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1068,24 +1033,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1125,7 +1090,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1145,7 +1110,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1165,7 +1130,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1185,7 +1150,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1205,7 +1170,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1225,7 +1190,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1245,7 +1210,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1265,7 +1230,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1285,7 +1250,7 @@
         <v>1176.6484375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1305,7 +1270,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1325,7 +1290,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1345,7 +1310,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1365,7 +1330,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1385,7 +1350,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1405,7 +1370,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1425,7 +1390,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1445,7 +1410,7 @@
         <v>1531.890625</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1465,7 +1430,7 @@
         <v>1531.875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1485,7 +1450,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1505,7 +1470,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1525,7 +1490,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1545,7 +1510,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1565,7 +1530,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1585,7 +1550,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1605,7 +1570,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1625,7 +1590,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1645,7 +1610,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1665,7 +1630,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1685,7 +1650,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1705,7 +1670,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1725,7 +1690,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1745,7 +1710,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1765,7 +1730,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1785,7 +1750,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1805,7 +1770,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1825,7 +1790,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1845,7 +1810,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1865,7 +1830,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1885,7 +1850,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1905,7 +1870,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1925,7 +1890,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1945,7 +1910,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1971,24 +1936,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2016,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2024,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2032,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2040,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2048,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2056,7 +2021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2064,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2072,7 +2037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2080,7 +2045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2088,7 +2053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2096,7 +2061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2104,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2112,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2120,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2128,7 +2093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2136,7 +2101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2144,7 +2109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2152,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2160,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2168,7 +2133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2176,7 +2141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2184,7 +2149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2192,7 +2157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2200,7 +2165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2208,7 +2173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2216,7 +2181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2224,7 +2189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2232,7 +2197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2240,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2248,7 +2213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2256,7 +2221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2264,7 +2229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2272,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2280,7 +2245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2288,7 +2253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2296,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2304,7 +2269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2312,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2320,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2328,7 +2293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2336,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2344,7 +2309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678A0ED-E3DF-B748-BB4A-AEC822BAB910}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="456" windowWidth="28620" windowHeight="12924"/>
+    <workbookView xWindow="-38280" yWindow="460" windowWidth="35660" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
   <si>
     <t>Num procs</t>
   </si>
@@ -154,12 +155,21 @@
   </si>
   <si>
     <t>561.67 GB</t>
+  </si>
+  <si>
+    <t>54 minutes 23 seconds</t>
+  </si>
+  <si>
+    <t>69 GB</t>
+  </si>
+  <si>
+    <t>split by scaffold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,6 +294,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -319,6 +346,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,21 +538,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -516,7 +560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -524,7 +568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -532,7 +576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -540,7 +584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -548,17 +592,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -566,7 +619,7 @@
         <v>28921</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -574,67 +627,67 @@
         <v>2861668348</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -645,24 +698,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -690,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -698,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -706,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -714,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -722,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -730,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -738,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -746,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -754,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -762,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -770,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -778,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -786,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -794,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -802,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -810,7 +863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -818,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -826,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -834,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -842,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -850,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -858,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -866,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -874,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -882,7 +935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -890,7 +943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -898,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -906,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -914,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -922,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -930,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -938,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -946,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -954,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -962,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -970,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -978,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -986,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -994,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1002,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1010,7 +1063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1018,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1033,24 +1086,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1090,7 +1143,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1110,7 +1163,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1130,7 +1183,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1150,7 +1203,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1170,7 +1223,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1190,7 +1243,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1210,7 +1263,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1230,7 +1283,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1250,7 +1303,7 @@
         <v>1176.6484375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1270,7 +1323,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1290,7 +1343,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1310,7 +1363,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1330,7 +1383,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1350,7 +1403,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1370,7 +1423,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1390,7 +1443,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1410,7 +1463,7 @@
         <v>1531.890625</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1430,7 +1483,7 @@
         <v>1531.875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1450,7 +1503,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1470,7 +1523,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1490,7 +1543,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1510,7 +1563,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1530,7 +1583,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1550,7 +1603,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1570,7 +1623,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1590,7 +1643,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1610,7 +1663,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1630,7 +1683,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1650,7 +1703,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1670,7 +1723,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1690,7 +1743,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1710,7 +1763,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1730,7 +1783,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1750,7 +1803,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1770,7 +1823,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1790,7 +1843,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1810,7 +1863,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1830,7 +1883,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1850,7 +1903,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1870,7 +1923,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1890,7 +1943,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1910,7 +1963,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1936,24 +1989,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1981,7 +2034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1989,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1997,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2005,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2013,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2021,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2029,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2037,7 +2090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2045,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2053,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2061,7 +2114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2069,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2077,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2085,7 +2138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2093,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2101,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2109,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2117,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2125,7 +2178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2133,7 +2186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2141,7 +2194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2149,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2157,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2165,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2173,7 +2226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2181,7 +2234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2189,7 +2242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2197,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2205,7 +2258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2213,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2221,7 +2274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2229,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2237,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2245,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2253,7 +2306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2261,7 +2314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2269,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2277,7 +2330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2285,7 +2338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2293,7 +2346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2301,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2309,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678A0ED-E3DF-B748-BB4A-AEC822BAB910}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="460" windowWidth="35660" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38280" yWindow="456" windowWidth="35664" windowHeight="18996"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
   <si>
     <t>Num procs</t>
   </si>
@@ -164,12 +163,18 @@
   </si>
   <si>
     <t>split by scaffold</t>
+  </si>
+  <si>
+    <t>Size of Referee output</t>
+  </si>
+  <si>
+    <t>75.09 GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,23 +299,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -346,23 +334,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,21 +509,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -560,7 +531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -568,7 +539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -576,7 +547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -584,7 +555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -592,7 +563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -600,7 +571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -611,7 +582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -619,7 +590,7 @@
         <v>28921</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -627,68 +598,76 @@
         <v>2861668348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -698,24 +677,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -743,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -751,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -759,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -767,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -775,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -783,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -791,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -799,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -807,7 +786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -815,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -823,7 +802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -831,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -839,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -847,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -855,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -863,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -871,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -879,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -887,7 +866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -895,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -903,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -911,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -919,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -927,7 +906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -935,7 +914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -943,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -951,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -959,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -967,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -975,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -983,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -991,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -999,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1007,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1015,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1023,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1031,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1039,7 +1018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1047,7 +1026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1055,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1063,7 +1042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1071,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1086,24 +1065,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1143,7 +1122,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1163,7 +1142,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1183,7 +1162,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1203,7 +1182,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1223,7 +1202,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1243,7 +1222,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1263,7 +1242,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1283,7 +1262,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1303,7 +1282,7 @@
         <v>1176.6484375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1323,7 +1302,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1343,7 +1322,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1363,7 +1342,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1383,7 +1362,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1403,7 +1382,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1423,7 +1402,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1443,7 +1422,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1463,7 +1442,7 @@
         <v>1531.890625</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1483,7 +1462,7 @@
         <v>1531.875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1503,7 +1482,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1523,7 +1502,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1543,7 +1522,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1563,7 +1542,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1583,7 +1562,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1603,7 +1582,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1623,7 +1602,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1643,7 +1622,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1663,7 +1642,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1683,7 +1662,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1703,7 +1682,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1723,7 +1702,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1743,7 +1722,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1763,7 +1742,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1783,7 +1762,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1803,7 +1782,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1823,7 +1802,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1843,7 +1822,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1863,7 +1842,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1883,7 +1862,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1903,7 +1882,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1923,7 +1902,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1943,7 +1922,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1963,7 +1942,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1989,24 +1968,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2034,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2042,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2050,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2058,7 +2037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2066,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2074,7 +2053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2082,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2090,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2098,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2106,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2114,7 +2093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2122,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2130,7 +2109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2138,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2146,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2154,7 +2133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2162,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2170,7 +2149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2178,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2186,7 +2165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2194,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2202,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2210,7 +2189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2218,7 +2197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2226,7 +2205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2234,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2242,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2250,7 +2229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2258,7 +2237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2266,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2274,7 +2253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2282,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2290,7 +2269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2298,7 +2277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2306,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2314,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2322,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2330,7 +2309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2338,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2346,7 +2325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2354,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2362,7 +2341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="456" windowWidth="35664" windowHeight="18996"/>
+    <workbookView xWindow="-38280" yWindow="456" windowWidth="35664" windowHeight="18996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t>Num procs</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>75.09 GB</t>
+  </si>
+  <si>
+    <t>Sites with no reads mapped</t>
+  </si>
+  <si>
+    <t>Add unmapped</t>
   </si>
 </sst>
 </file>
@@ -512,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +624,14 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>197049049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -678,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,26 +730,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>23.881839036900001</v>
+      </c>
+      <c r="D2">
+        <v>23.890377044699999</v>
+      </c>
+      <c r="E2">
+        <v>39.5</v>
+      </c>
+      <c r="F2">
+        <v>184.46484375</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>15.988245964100001</v>
+      </c>
+      <c r="D3">
+        <v>43.822856903100003</v>
+      </c>
+      <c r="E3">
+        <v>49.09765625</v>
+      </c>
+      <c r="F3">
+        <v>178.96484375</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3.62300872803E-3</v>
+      </c>
+      <c r="D4">
+        <v>2820.4306268700002</v>
+      </c>
+      <c r="E4">
+        <v>2298.38671875</v>
+      </c>
+      <c r="F4">
+        <v>5693.8984375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,319 +793,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>6.2611103057900004E-3</v>
+      </c>
+      <c r="D5">
+        <v>4913.9100429999999</v>
+      </c>
+      <c r="E5">
+        <v>2446.16015625</v>
+      </c>
+      <c r="F5">
+        <v>5841.78125</v>
       </c>
     </row>
   </sheetData>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="456" windowWidth="35664" windowHeight="18996" activeTab="1"/>
+    <workbookView xWindow="-38280" yWindow="456" windowWidth="35664" windowHeight="18996"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,6 +634,9 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
+      <c r="B14">
+        <v>2385521027</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -694,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B3ED5-E83D-824D-8C61-BE038349A0C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="456" windowWidth="35664" windowHeight="18996"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="35660" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,6 +306,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -340,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,21 +550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -537,7 +572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -545,7 +580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -553,7 +588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -561,7 +596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -569,7 +604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -577,7 +612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -588,7 +623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -596,7 +631,7 @@
         <v>28921</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -604,12 +639,12 @@
         <v>2861668348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -617,12 +652,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -630,7 +665,7 @@
         <v>197049049</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -638,52 +673,52 @@
         <v>2385521027</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -694,24 +729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>23</v>
       </c>
@@ -751,7 +786,7 @@
         <v>184.46484375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>23</v>
       </c>
@@ -771,7 +806,7 @@
         <v>178.96484375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>23</v>
       </c>
@@ -791,7 +826,7 @@
         <v>5693.8984375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -818,24 +853,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -875,7 +910,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -895,7 +930,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -915,7 +950,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -935,7 +970,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -955,7 +990,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -975,7 +1010,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -995,7 +1030,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>1176.6484375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1055,7 +1090,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1115,7 +1150,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1135,7 +1170,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1155,7 +1190,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1175,7 +1210,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1195,7 +1230,7 @@
         <v>1531.890625</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>1531.875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1235,7 +1270,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1275,7 +1310,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1335,7 +1370,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1355,7 +1390,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1395,7 +1430,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1435,7 +1470,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1455,7 +1490,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1475,7 +1510,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1495,7 +1530,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1535,7 +1570,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1555,7 +1590,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1575,7 +1610,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1595,7 +1630,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1635,7 +1670,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1655,7 +1690,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1675,7 +1710,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1695,7 +1730,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1721,24 +1756,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1766,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1774,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1782,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1790,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1806,7 +1841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1814,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1822,7 +1857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1846,7 +1881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1862,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1870,7 +1905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1878,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1886,7 +1921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1894,7 +1929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1902,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1910,7 +1945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1918,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1926,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1934,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1950,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1958,7 +1993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1966,7 +2001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1974,7 +2009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1998,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2014,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2038,7 +2073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2046,7 +2081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2054,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2062,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2086,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2094,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B3ED5-E83D-824D-8C61-BE038349A0C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="35660" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="465" windowWidth="35655" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -181,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,26 +300,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,23 +335,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,18 +510,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,7 +591,7 @@
         <v>28921</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -639,12 +599,15 @@
         <v>2861668348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2664619299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -652,12 +615,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -665,7 +628,7 @@
         <v>197049049</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -673,52 +636,52 @@
         <v>2385521027</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -729,21 +692,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,21 +816,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1390,7 +1353,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1410,7 +1373,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1430,7 +1393,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1450,7 +1413,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1470,7 +1433,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1490,7 +1453,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1510,7 +1473,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1530,7 +1493,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1550,7 +1513,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1570,7 +1533,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1590,7 +1553,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1610,7 +1573,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1630,7 +1593,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1650,7 +1613,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1670,7 +1633,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1690,7 +1653,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1710,7 +1673,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1730,7 +1693,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1756,21 +1719,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1841,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1849,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1857,7 +1820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1865,7 +1828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1873,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1881,7 +1844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1889,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1897,7 +1860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1905,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1913,7 +1876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1921,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1929,7 +1892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1937,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1945,7 +1908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1953,7 +1916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1961,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1969,7 +1932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1977,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1985,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1993,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2001,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2009,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2017,7 +1980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2025,7 +1988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2033,7 +1996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2041,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2049,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2057,7 +2020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2065,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2073,7 +2036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2081,7 +2044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2089,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2097,7 +2060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2105,7 +2068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2113,7 +2076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2121,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2129,7 +2092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -12,12 +12,12 @@
     <sheet name="fasta-method-2" sheetId="2" r:id="rId3"/>
     <sheet name="fasta-method-3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>Num procs</t>
   </si>
@@ -693,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,62 +731,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>23.881839036900001</v>
-      </c>
-      <c r="D2">
-        <v>23.890377044699999</v>
-      </c>
-      <c r="E2">
-        <v>39.5</v>
-      </c>
-      <c r="F2">
-        <v>184.46484375</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>15.988245964100001</v>
-      </c>
-      <c r="D3">
-        <v>43.822856903100003</v>
-      </c>
-      <c r="E3">
-        <v>49.09765625</v>
-      </c>
-      <c r="F3">
-        <v>178.96484375</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
-      </c>
-      <c r="C4">
-        <v>3.62300872803E-3</v>
-      </c>
-      <c r="D4">
-        <v>2820.4306268700002</v>
-      </c>
-      <c r="E4">
-        <v>2298.38671875</v>
-      </c>
-      <c r="F4">
-        <v>5693.8984375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,16 +760,196 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>155.26003408400001</v>
+      </c>
+      <c r="D12">
+        <v>155.273874044</v>
+      </c>
+      <c r="E12">
+        <v>38.97265625</v>
+      </c>
+      <c r="F12">
+        <v>168.95703125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>17.8446338177</v>
+      </c>
+      <c r="D13">
+        <v>173.118507862</v>
+      </c>
+      <c r="E13">
+        <v>49.5078125</v>
+      </c>
+      <c r="F13">
+        <v>179.46484375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>1.9459724426299999E-3</v>
+      </c>
+      <c r="D14">
+        <v>6648.2537269599998</v>
+      </c>
+      <c r="E14">
+        <v>893.34765625</v>
+      </c>
+      <c r="F14">
+        <v>2287.35546875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>4.1451454162599998E-3</v>
+      </c>
+      <c r="D15">
+        <v>9053.6434659999995</v>
+      </c>
+      <c r="E15">
+        <v>972</v>
+      </c>
+      <c r="F15">
+        <v>2366.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>23.881839036900001</v>
+      </c>
+      <c r="D17">
+        <v>23.890377044699999</v>
+      </c>
+      <c r="E17">
+        <v>39.5</v>
+      </c>
+      <c r="F17">
+        <v>184.46484375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>15.988245964100001</v>
+      </c>
+      <c r="D18">
+        <v>43.822856903100003</v>
+      </c>
+      <c r="E18">
+        <v>49.09765625</v>
+      </c>
+      <c r="F18">
+        <v>178.96484375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>3.62300872803E-3</v>
+      </c>
+      <c r="D19">
+        <v>2820.4306268700002</v>
+      </c>
+      <c r="E19">
+        <v>2298.38671875</v>
+      </c>
+      <c r="F19">
+        <v>5693.8984375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
         <v>6.2611103057900004E-3</v>
       </c>
-      <c r="D5">
+      <c r="D20">
         <v>4913.9100429999999</v>
       </c>
-      <c r="E5">
+      <c r="E20">
         <v>2446.16015625</v>
       </c>
-      <c r="F5">
+      <c r="F20">
         <v>5841.78125</v>
       </c>
     </row>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -696,7 +696,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB2C60-0406-144F-9422-7856C8EBC1B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="465" windowWidth="35655" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="-37200" yWindow="460" windowWidth="35660" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -175,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +306,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,18 +550,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -591,7 +631,7 @@
         <v>28921</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -599,7 +639,7 @@
         <v>2861668348</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -607,7 +647,7 @@
         <v>2664619299</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -615,12 +655,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -628,7 +668,7 @@
         <v>197049049</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -636,52 +676,52 @@
         <v>2385521027</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -692,21 +732,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -761,39 +801,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>741.59796905500002</v>
+      </c>
+      <c r="D7">
+        <v>741.68255901299995</v>
+      </c>
+      <c r="E7">
+        <v>38.96875</v>
+      </c>
+      <c r="F7">
+        <v>168.9453125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>17.330924034100001</v>
+      </c>
+      <c r="D8">
+        <v>759.01348304700002</v>
+      </c>
+      <c r="E8">
+        <v>49.5078125</v>
+      </c>
+      <c r="F8">
+        <v>179.46484375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3.1211376190200001E-3</v>
+      </c>
+      <c r="D9">
+        <v>13552.590457</v>
+      </c>
+      <c r="E9">
+        <v>510.39453125</v>
+      </c>
+      <c r="F9">
+        <v>1370.80859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4.4980049133300001E-3</v>
+      </c>
+      <c r="D10">
+        <v>17857.0421259</v>
+      </c>
+      <c r="E10">
+        <v>539.484375</v>
+      </c>
+      <c r="F10">
+        <v>1399.890625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -813,7 +901,7 @@
         <v>168.95703125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -833,7 +921,7 @@
         <v>179.46484375</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -853,7 +941,7 @@
         <v>2287.35546875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -873,7 +961,7 @@
         <v>2366.125</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
@@ -893,7 +981,7 @@
         <v>184.46484375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>23</v>
       </c>
@@ -913,7 +1001,7 @@
         <v>178.96484375</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
@@ -933,7 +1021,7 @@
         <v>5693.8984375</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23</v>
       </c>
@@ -960,21 +1048,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,7 +1585,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1517,7 +1605,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1537,7 +1625,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1557,7 +1645,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1577,7 +1665,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1597,7 +1685,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1617,7 +1705,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1637,7 +1725,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1657,7 +1745,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1677,7 +1765,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1697,7 +1785,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1717,7 +1805,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1737,7 +1825,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1757,7 +1845,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1777,7 +1865,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1797,7 +1885,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1817,7 +1905,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1837,7 +1925,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1863,21 +1951,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1948,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1956,7 +2044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1964,7 +2052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1972,7 +2060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1980,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1988,7 +2076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1996,7 +2084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2004,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2012,7 +2100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2020,7 +2108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2028,7 +2116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2036,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2044,7 +2132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2052,7 +2140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2060,7 +2148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2068,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2076,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2084,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2092,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2100,7 +2188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2108,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2116,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2124,7 +2212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2132,7 +2220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2140,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2148,7 +2236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2156,7 +2244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2164,7 +2252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2172,7 +2260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2180,7 +2268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2188,7 +2276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2196,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2204,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2212,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2220,7 +2308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2228,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2236,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB2C60-0406-144F-9422-7856C8EBC1B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B3EB3-9BE1-8D4C-879F-37CA432BE6E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37200" yWindow="460" windowWidth="35660" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B3EB3-9BE1-8D4C-879F-37CA432BE6E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6ABF8-7152-D04A-9073-2061EF730AE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37200" yWindow="460" windowWidth="35660" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="35660" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,6 +776,18 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>90.856513023399998</v>
+      </c>
+      <c r="D2">
+        <v>90.872089862799996</v>
+      </c>
+      <c r="E2">
+        <v>38.98828125</v>
+      </c>
+      <c r="F2">
+        <v>168.953125</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -784,6 +796,18 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>18.001127004600001</v>
+      </c>
+      <c r="D3">
+        <v>108.873216867</v>
+      </c>
+      <c r="E3">
+        <v>49.51171875</v>
+      </c>
+      <c r="F3">
+        <v>179.46875</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -792,6 +816,18 @@
       <c r="B4" t="s">
         <v>50</v>
       </c>
+      <c r="C4">
+        <v>1.36613845825E-3</v>
+      </c>
+      <c r="D4">
+        <v>49258.458025</v>
+      </c>
+      <c r="E4">
+        <v>102.07421875</v>
+      </c>
+      <c r="F4">
+        <v>233.19921875</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -799,6 +835,18 @@
       </c>
       <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3.7100315094E-3</v>
+      </c>
+      <c r="D5">
+        <v>62391.398842800001</v>
+      </c>
+      <c r="E5">
+        <v>102.125</v>
+      </c>
+      <c r="F5">
+        <v>233.15234375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/referee-performance-owlmonkey.xlsx
+++ b/data/referee-performance-owlmonkey.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6ABF8-7152-D04A-9073-2061EF730AE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="35660" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="465" windowWidth="35655" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="owl-monkey-info" sheetId="4" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t>Num procs</t>
   </si>
@@ -82,9 +76,6 @@
     <t>Bases</t>
   </si>
   <si>
-    <t>Mapped sites with ANGSD calcs</t>
-  </si>
-  <si>
     <t>Sites with ref base N</t>
   </si>
   <si>
@@ -118,21 +109,12 @@
     <t>Reads file</t>
   </si>
   <si>
-    <t>ANGSD command</t>
-  </si>
-  <si>
-    <t>angsd -GL 2 -i mapped-reads/n2_5x_100_180_sorted.bam -ref assembly/rpgc_assembly.fasta -minQ 0 -doGlf 4</t>
-  </si>
-  <si>
     <t>Size of reads file</t>
   </si>
   <si>
     <t>Time to run ANGSD</t>
   </si>
   <si>
-    <t>ANGSD genotype likelihood file size (compressed)</t>
-  </si>
-  <si>
     <t>Avg. depth of all sites</t>
   </si>
   <si>
@@ -157,15 +139,9 @@
     <t>561.67 GB</t>
   </si>
   <si>
-    <t>54 minutes 23 seconds</t>
-  </si>
-  <si>
     <t>69 GB</t>
   </si>
   <si>
-    <t>split by scaffold</t>
-  </si>
-  <si>
     <t>Size of Referee output</t>
   </si>
   <si>
@@ -176,12 +152,51 @@
   </si>
   <si>
     <t>Add unmapped</t>
+  </si>
+  <si>
+    <t>Time to run mpileup</t>
+  </si>
+  <si>
+    <t>Sites with pileup</t>
+  </si>
+  <si>
+    <t>Sites with ANGSD calcs</t>
+  </si>
+  <si>
+    <t>Size of Referee fastq output</t>
+  </si>
+  <si>
+    <t>samtools mpileup -d 999999999 -f $omref -Q 0 -B -s -o om-pileup/$1.pileup $omdir/split-bam-out/$1.bam</t>
+  </si>
+  <si>
+    <t>Pileup command per scaffold</t>
+  </si>
+  <si>
+    <t>ANGSD command per scaffold</t>
+  </si>
+  <si>
+    <t>Size of pileup files (all scaffs)</t>
+  </si>
+  <si>
+    <t>ANGSD genotype likelihood file sizes (all scaffs, compressed)</t>
+  </si>
+  <si>
+    <t>angsd -GL 2 -i $omdir/split-bam-out/$1.bam -ref $omref -minQ 0 -doGlf 4 -out om-angsd/$1</t>
+  </si>
+  <si>
+    <t>54.38 minutes</t>
+  </si>
+  <si>
+    <t>43.77 minutes</t>
+  </si>
+  <si>
+    <t>1.1 TB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,26 +321,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,23 +356,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,203 +531,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>28921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2861668348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>2664919867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2664619299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>28921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>2861668348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>2664619299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>197049049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>2385521027</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -814,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>1.36613845825E-3</v>
@@ -894,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>3.1211376190200001E-3</v>
@@ -974,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1.9459724426299999E-3</v>
@@ -1054,7 +1064,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>3.62300872803E-3</v>
@@ -1096,21 +1106,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1999,21 +2009,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
